--- a/biology/Botanique/Forêt_de_conifères_du_littoral_pacifique/Forêt_de_conifères_du_littoral_pacifique.xlsx
+++ b/biology/Botanique/Forêt_de_conifères_du_littoral_pacifique/Forêt_de_conifères_du_littoral_pacifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_conif%C3%A8res_du_littoral_pacifique</t>
+          <t>Forêt_de_conifères_du_littoral_pacifique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt de conifères du littoral pacifique fait partie du groupe des forêts sempervirentes. Elle se développe sur la côte pacifique de l'Amérique du Nord, du sud de l'Alaska à la Californie aux États-Unis en passant par la Colombie-Britannique au Canada, soit une bande de près de 3 700 kilomètres de long sur quelques kilomètres à 500 kilomètres de large.
 La région jouit d'un climat océanique à forte humidité. Port-Simpson,en Colombie-Britannique a des températures moyennes qui varient de 1°1 en janvier à 13°7 en août. Euréka, dans le Nord de la Californie, a 8°3 et 13°3. Les précipitations sont abondantes : Vancouver reçoit 1400 mm annuels mais seulement 30 mm en juillet, néanmoins les températures estivales étant modérées et les nappes phréatiques bien fournies, la végétation ne souffre pas.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_conif%C3%A8res_du_littoral_pacifique</t>
+          <t>Forêt_de_conifères_du_littoral_pacifique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Voir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elhai (Henri), Biogéographie, Collection U, Armand Colin,1968, Paris
  Portail du bois et de la forêt                     </t>
